--- a/frontend/build/dump.xlsx
+++ b/frontend/build/dump.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="levobogo"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levobogo\pets\mgt-next\frontend\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA1CE50-E04B-4F05-B91D-34AC38249396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Водители" sheetId="1" r:id="rId4"/>
-    <sheet name="Автобусы" sheetId="2" r:id="rId5"/>
-    <sheet name="Маршруты" sheetId="3" r:id="rId6"/>
-    <sheet name="Выходы" sheetId="4" r:id="rId7"/>
+    <sheet name="Водители" sheetId="1" r:id="rId1"/>
+    <sheet name="Автобусы" sheetId="2" r:id="rId2"/>
+    <sheet name="Маршруты" sheetId="3" r:id="rId3"/>
+    <sheet name="Выходы" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1736322829" val="1222" rev="124" revOS="4" revMin="124" revMax="0"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Номер водителя</t>
   </si>
@@ -63,109 +68,58 @@
   <si>
     <t>Время обеда второй смены</t>
   </si>
+  <si>
+    <t>График</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1736322829" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1736322829" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1736322829"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1736322829"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1736322829" count="1">
         <pm:charStyle name="Обычный" fontId="0"/>
@@ -430,21 +384,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.810811" customWidth="1"/>
-    <col min="2" max="2" width="38.126126" customWidth="1"/>
-    <col min="3" max="3" width="14.369369" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,27 +406,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1736322829" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1736322829" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1736322829" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1736322829" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1736322829" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1736322829" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -487,21 +425,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.369369" customWidth="1"/>
-    <col min="2" max="2" width="15.234234" customWidth="1"/>
-    <col min="3" max="3" width="13.000000" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -513,25 +451,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1736322829" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1736322829" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1736322829" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1736322829" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1736322829" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1736322829" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -544,43 +465,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.234234" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1736322829" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1736322829" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1736322829" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1736322829" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1736322829" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1736322829" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -593,27 +497,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.000000" customWidth="1"/>
-    <col min="2" max="2" width="15.234234" customWidth="1"/>
-    <col min="3" max="3" width="29.108108" customWidth="1"/>
-    <col min="4" max="4" width="29.936937" customWidth="1"/>
-    <col min="5" max="5" width="13.765766" customWidth="1"/>
-    <col min="6" max="6" width="13.504505" customWidth="1"/>
-    <col min="7" max="7" width="16.585586" customWidth="1"/>
-    <col min="8" max="8" width="24.126126" customWidth="1"/>
-    <col min="9" max="9" width="23.945946" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -643,25 +547,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1736322829" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1736322829" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1736322829" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1736322829" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1736322829" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1736322829" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/frontend/build/dump.xlsx
+++ b/frontend/build/dump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levobogo\pets\mgt-next\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA1CE50-E04B-4F05-B91D-34AC38249396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5634B94D-299D-4CCB-9514-C0A2C885C51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Водители" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Номер водителя</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>График</t>
+  </si>
+  <si>
+    <t>График буднего дня</t>
+  </si>
+  <si>
+    <t>График выходного дня</t>
+  </si>
+  <si>
+    <t>Две смены</t>
   </si>
 </sst>
 </file>
@@ -105,8 +114,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -387,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -498,55 +519,120 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="K1:R1"/>
+  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
   <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
